--- a/smoke result.xlsx
+++ b/smoke result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindysmacbook/Documents/專題/smoke_detect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindysmacbook/Documents/專題/smoke_detect/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFEAC9F-A684-5C44-BA69-EE42F74C8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFBE0C6-6BF7-214C-B373-32E2BD7338C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27320" windowHeight="16320" xr2:uid="{8B2E24F8-8E53-5A46-A82B-14F4B845FFE7}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="27320" windowHeight="16320" activeTab="1" xr2:uid="{8B2E24F8-8E53-5A46-A82B-14F4B845FFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Clip" sheetId="1" r:id="rId1"/>
-    <sheet name="GradCAM" sheetId="2" r:id="rId2"/>
+    <sheet name="Transfer learning" sheetId="3" r:id="rId2"/>
+    <sheet name="GradCAM" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Clip!$A$1:$F$25</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>clip label</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +235,59 @@
   </si>
   <si>
     <t>data size: 15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset: Smoke100k-H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data size: train(50000) / (test)30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_spend</t>
+  </si>
+  <si>
+    <t>finetuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed feature extractor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model: vgg16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size: 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4m 45s</t>
+  </si>
+  <si>
+    <t>model: resnet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26m 60s</t>
+  </si>
+  <si>
+    <t>12m 18s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7m 55s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,8 +295,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -364,15 +419,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -380,15 +426,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +444,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6ADA3-6307-5B48-A409-E73AB43FE13D}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -750,573 +805,549 @@
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="9">
         <v>0.9667</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>0.92410000000000003</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>0.80989999999999995</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F24" si="0">AVERAGE(C5:E5)</f>
         <v>0.90023333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="9">
         <v>0.933433333333333</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="9">
         <v>0.90283333333333304</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>0.82793333333333297</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>0.88806666666666645</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>0.95443333333333302</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>0.8962</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>0.76890000000000003</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.87317777777777772</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>0.94023333333333303</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>0.88596666666666601</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>0.76083333333333303</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.86234444444444414</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>0.92149999999999999</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>0.77816666666666601</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.86022222222222189</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>0.91673333333333296</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>0.87743333333333295</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>0.78269999999999995</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>0.85895555555555525</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>0.8881</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>0.86660000000000004</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>0.80669999999999997</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>0.8538</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>0.93216666666666603</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>0.87863333333333304</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>0.74560000000000004</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>0.85213333333333308</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>0.93640000000000001</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>0.87033333333333296</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>0.735866666666666</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0.84753333333333292</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>0.91353333333333298</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>0.85440000000000005</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>0.73606666666666598</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>0.83466666666666633</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>0.87286666666666601</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>0.83426666666666605</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <v>0.74126666666666596</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0.81613333333333271</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>0.84919999999999995</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>0.82369999999999999</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>0.73950000000000005</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>0.80413333333333326</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>0.81459999999999999</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>0.79390000000000005</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>0.74990000000000001</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>0.78613333333333335</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>0.82696666666666596</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>0.79816666666666602</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>0.72453333333333303</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>0.78322222222222171</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>0.73660000000000003</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>0.72619999999999996</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <v>0.68730000000000002</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>0.7167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>0.73276666666666601</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>0.71906666666666597</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <v>0.686533333333333</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>0.71278888888888836</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>0.73106666666666598</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>0.71746666666666603</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <v>0.68493333333333295</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>0.71115555555555499</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>0.65229999999999999</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>0.64910000000000001</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <v>0.63670000000000004</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>0.64603333333333335</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>0.60943333333333305</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>0.60373333333333301</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="7">
         <v>0.59543333333333304</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>0.60286666666666633</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>0.56713333333333305</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>0.56203333333333305</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <v>0.55053333333333299</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>0.55989999999999973</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="11" customFormat="1">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1">
-      <c r="A26" s="3"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1">
-      <c r="A27" s="13" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>0.93279999999999996</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>0.89988749999999995</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="7">
         <v>0.82338750000000005</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="7">
         <f t="shared" ref="F31" si="1">AVERAGE(C31:E31)</f>
         <v>0.88535833333333336</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="11" customFormat="1">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="1"/>
@@ -1324,13 +1355,13 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>0.92200000000000004</v>
       </c>
     </row>
@@ -1357,6 +1388,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B2FD2-9DF6-144D-BCE3-051929699251}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="36.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.99973299999999998</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.99286700000000006</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.968333</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E441B08-B59C-6542-8188-970248B394ED}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1366,9 +1531,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="45.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1380,32 +1545,32 @@
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>0.85819999999999996</v>
       </c>
     </row>

--- a/smoke result.xlsx
+++ b/smoke result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindysmacbook/Documents/專題/smoke_detect/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFBE0C6-6BF7-214C-B373-32E2BD7338C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC982A89-328C-2543-80C2-3A7A79D546AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="27320" windowHeight="16320" activeTab="1" xr2:uid="{8B2E24F8-8E53-5A46-A82B-14F4B845FFE7}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="27320" windowHeight="16320" xr2:uid="{8B2E24F8-8E53-5A46-A82B-14F4B845FFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Clip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>clip label</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data size: train(50000) / (test)30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time_spend</t>
   </si>
   <si>
@@ -288,6 +284,130 @@
   </si>
   <si>
     <t>7m 55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset: white_yellow_smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data size: 208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inference time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney without yellow smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with yellow smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with white cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with yellow cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with white smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with white air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with yellow air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a white smoke with chimney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a yellow smoke with chimney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney without yellow cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney white smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney yellow smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a white cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a yellow cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a chimney with non-yellow cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a white smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a yellow smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a yellow orange smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a orange smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a white smog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a yellow smog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a photo of a polluted smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data size: train(133) / test(74)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data size: train(50000) / test(30000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0m 8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0m 2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0m 12s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0m 3s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +417,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -371,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -394,6 +514,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -403,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,22 +575,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,16 +920,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6ADA3-6307-5B48-A409-E73AB43FE13D}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="54" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="3" customWidth="1"/>
     <col min="3" max="4" width="15.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
@@ -811,20 +952,20 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1279,20 +1420,20 @@
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1343,10 +1484,10 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1363,6 +1504,224 @@
       </c>
       <c r="C36" s="7">
         <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.85576923076922995</v>
+      </c>
+      <c r="D42" s="7">
+        <v>42.2610326494489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.85096153846153799</v>
+      </c>
+      <c r="D43" s="7">
+        <v>48.756749289376302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.83653846153846101</v>
+      </c>
+      <c r="D44" s="7">
+        <v>43.667725971766799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.82692307692307598</v>
+      </c>
+      <c r="D45" s="7">
+        <v>47.6722918919154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.82211538461538403</v>
+      </c>
+      <c r="D46" s="7">
+        <v>44.1037030901227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.81730769230769196</v>
+      </c>
+      <c r="D47" s="7">
+        <v>43.828433445521704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D48" s="7">
+        <v>45.057736533028702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.80288461538461497</v>
+      </c>
+      <c r="D49" s="7">
+        <v>46.306504930768597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.79807692307692302</v>
+      </c>
+      <c r="D50" s="7">
+        <v>42.7303635733468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D51" s="7">
+        <v>43.7854077475411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.75961538461538403</v>
+      </c>
+      <c r="D52" s="7">
+        <v>46.884191785539898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.75961538461538403</v>
+      </c>
+      <c r="D53" s="7">
+        <v>52.410636901855398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.57692307692307598</v>
+      </c>
+      <c r="D54" s="7">
+        <v>42.226445606776601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.394230769230769</v>
+      </c>
+      <c r="D55" s="7">
+        <v>42.376201629638601</v>
       </c>
     </row>
   </sheetData>
@@ -1389,18 +1748,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B2FD2-9DF6-144D-BCE3-051929699251}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="36.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="16" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="16" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -1412,109 +1771,221 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="A4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="19">
+        <v>58</v>
+      </c>
+      <c r="B6" s="17">
         <v>0.99973299999999998</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="17">
         <v>0.95450000000000002</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>61</v>
+      <c r="E6" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.99286700000000006</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.968333</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="20" thickBot="1">
+      <c r="B11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="19">
-        <v>0.99286700000000006</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.968333</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>64</v>
+      <c r="B16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.90540500000000002</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.81081099999999995</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.95945899999999995</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.87837799999999999</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,7 +1997,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
